--- a/SpriteTemplate.xlsx
+++ b/SpriteTemplate.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
   <si>
     <t>¢</t>
   </si>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:BE37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C34" sqref="C34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,27 +1266,21 @@
       <c r="B2" s="3"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1337,39 +1331,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1420,42 +1396,20 @@
       <c r="B4" s="3"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -1503,49 +1457,23 @@
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1593,48 +1521,22 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1684,51 +1586,21 @@
       <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1774,54 +1646,24 @@
         <v>64</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -1867,54 +1709,28 @@
         <v>128</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1960,54 +1776,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -2053,54 +1837,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -2146,54 +1898,22 @@
         <v>4</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -2240,48 +1960,20 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2329,48 +2021,20 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2419,42 +2083,18 @@
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -2505,36 +2145,16 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2588,24 +2208,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -3494,67 +3102,67 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$2:C$9,"&lt;&gt;",$A$2:$A$9)),2)&amp;","</f>
-        <v>0xE0,</v>
+        <v>0x2A,</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" ref="D34:BE34" si="0">"0x"&amp;DEC2HEX((SUMIF(D$2:D$9,"&lt;&gt;",$A$2:$A$9)),2)&amp;","</f>
-        <v>0xF8,</v>
+        <v>0x80,</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFC,</v>
+        <v>0x01,</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFE,</v>
+        <v>0x80,</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFE,</v>
+        <v>0x01,</v>
       </c>
       <c r="H34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFF,</v>
+        <v>0x80,</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFF,</v>
+        <v>0x01,</v>
       </c>
       <c r="J34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFF,</v>
+        <v>0x54,</v>
       </c>
       <c r="K34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="M34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="N34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFE,</v>
+        <v>0x00,</v>
       </c>
       <c r="O34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFE,</v>
+        <v>0x00,</v>
       </c>
       <c r="P34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xFC,</v>
+        <v>0x00,</v>
       </c>
       <c r="Q34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xF8,</v>
+        <v>0x00,</v>
       </c>
       <c r="R34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0xE0,</v>
+        <v>0x00,</v>
       </c>
       <c r="S34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3718,67 +3326,67 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$10:C$17,"&lt;&gt;",$A$10:$A$17)),2)&amp;","</f>
-        <v>0x07,</v>
+        <v>0x00,</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" ref="D35:BE35" si="1">"0x"&amp;DEC2HEX((SUMIF(D$10:D$17,"&lt;&gt;",$A$10:$A$17)),2)&amp;","</f>
-        <v>0x1F,</v>
+        <v>0x00,</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x7F,</v>
+        <v>0x00,</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x7F,</v>
+        <v>0x00,</v>
       </c>
       <c r="H35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="J35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="K35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="L35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="M35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="N35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x7F,</v>
+        <v>0x00,</v>
       </c>
       <c r="O35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x7F,</v>
+        <v>0x00,</v>
       </c>
       <c r="P35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="Q35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x1F,</v>
+        <v>0x00,</v>
       </c>
       <c r="R35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0x07,</v>
+        <v>0x00,</v>
       </c>
       <c r="S35" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4383,6 +3991,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BD18:BE33 T33 AU20:AU33">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32">
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y33">
+    <cfRule type="colorScale" priority="369">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19">
     <cfRule type="colorScale" priority="372">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4392,7 +4080,97 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
+  <conditionalFormatting sqref="X32">
+    <cfRule type="colorScale" priority="367">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="colorScale" priority="364">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32">
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="colorScale" priority="365">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32">
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29">
     <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4402,38 +4180,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="colorScale" priority="358">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z32">
-    <cfRule type="colorScale" priority="369">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="colorScale" priority="370">
+  <conditionalFormatting sqref="X29">
+    <cfRule type="colorScale" priority="351">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z33">
+    <cfRule type="colorScale" priority="357">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4443,116 +4201,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33">
-    <cfRule type="colorScale" priority="368">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32">
-    <cfRule type="colorScale" priority="367">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z19">
-    <cfRule type="colorScale" priority="371">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="colorScale" priority="366">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
-    <cfRule type="colorScale" priority="363">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="colorScale" priority="365">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="colorScale" priority="364">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23">
-    <cfRule type="colorScale" priority="362">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="colorScale" priority="361">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
-    <cfRule type="colorScale" priority="359">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z32">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4562,17 +4220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="colorScale" priority="351">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
+  <conditionalFormatting sqref="Z29">
     <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4582,37 +4230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z33">
-    <cfRule type="colorScale" priority="356">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y33">
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
-    <cfRule type="colorScale" priority="353">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z29">
+  <conditionalFormatting sqref="AQ30:AT33">
     <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4622,7 +4240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30:AT33">
+  <conditionalFormatting sqref="AQ20">
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4632,7 +4250,87 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ20">
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="colorScale" priority="346">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS26">
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT27">
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT23">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS24">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS20">
     <cfRule type="colorScale" priority="347">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4642,8 +4340,238 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT25">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="colorScale" priority="322">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS28">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT29">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS24">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR33">
+    <cfRule type="colorScale" priority="314">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS30">
+    <cfRule type="colorScale" priority="329">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV20">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT31">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV26">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV27">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="colorScale" priority="326">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT25">
+    <cfRule type="colorScale" priority="325">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB26">
+    <cfRule type="colorScale" priority="305">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY27">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AQ26">
-    <cfRule type="colorScale" priority="345">
+    <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4653,17 +4581,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS26">
-    <cfRule type="colorScale" priority="344">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="colorScale" priority="343">
+    <cfRule type="colorScale" priority="323">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV23">
+    <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4673,106 +4601,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27">
-    <cfRule type="colorScale" priority="342">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="colorScale" priority="341">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT23">
-    <cfRule type="colorScale" priority="340">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="colorScale" priority="339">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS24">
-    <cfRule type="colorScale" priority="338">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS20">
-    <cfRule type="colorScale" priority="346">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="colorScale" priority="327">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="colorScale" priority="337">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT25">
-    <cfRule type="colorScale" priority="336">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
     <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4782,8 +4610,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BB22">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW23">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY23">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AQ28">
-    <cfRule type="colorScale" priority="335">
+    <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4793,7 +4651,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS28">
-    <cfRule type="colorScale" priority="334">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV24">
+    <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4803,16 +4671,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT29">
-    <cfRule type="colorScale" priority="332">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
     <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4822,27 +4680,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS24">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR33">
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="colorScale" priority="316">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS32">
+    <cfRule type="colorScale" priority="315">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT33">
     <cfRule type="colorScale" priority="313">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4852,27 +4710,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
-    <cfRule type="colorScale" priority="329">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS30">
-    <cfRule type="colorScale" priority="328">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV20">
+  <conditionalFormatting sqref="BB24">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV25">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV30:BC33">
+    <cfRule type="colorScale" priority="312">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX20">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4882,8 +4750,398 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT31">
-    <cfRule type="colorScale" priority="326">
+  <conditionalFormatting sqref="AX26">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ26">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA27">
+    <cfRule type="colorScale" priority="302">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC27">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ22">
+    <cfRule type="colorScale" priority="299">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX30">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV31">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX24">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ24">
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW25">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY25">
+    <cfRule type="colorScale" priority="289">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA25">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC25">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV29">
+    <cfRule type="colorScale" priority="285">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX28">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ28">
+    <cfRule type="colorScale" priority="283">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB28">
+    <cfRule type="colorScale" priority="282">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW29">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC29">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV28">
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY29">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA29">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV24">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX24">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ24">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB24">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV30">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC27">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV28">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ30">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB30">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW31">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY31">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA31">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC31">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV25">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW25">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY25">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA25">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC25">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4893,7 +5151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV26">
-    <cfRule type="colorScale" priority="308">
+    <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4903,27 +5161,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV27">
-    <cfRule type="colorScale" priority="307">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT25">
-    <cfRule type="colorScale" priority="324">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX26">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ26">
+    <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4933,7 +5191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB26">
-    <cfRule type="colorScale" priority="304">
+    <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4943,7 +5201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW27">
-    <cfRule type="colorScale" priority="303">
+    <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4953,207 +5211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY27">
-    <cfRule type="colorScale" priority="302">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS26">
-    <cfRule type="colorScale" priority="322">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV23">
-    <cfRule type="colorScale" priority="299">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT27">
-    <cfRule type="colorScale" priority="320">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB22">
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW23">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY23">
-    <cfRule type="colorScale" priority="295">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
-    <cfRule type="colorScale" priority="319">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS28">
-    <cfRule type="colorScale" priority="318">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV24">
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT29">
-    <cfRule type="colorScale" priority="316">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ32">
-    <cfRule type="colorScale" priority="315">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS32">
-    <cfRule type="colorScale" priority="314">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT33">
-    <cfRule type="colorScale" priority="312">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB24">
-    <cfRule type="colorScale" priority="291">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV25">
-    <cfRule type="colorScale" priority="290">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV30:BC33">
-    <cfRule type="colorScale" priority="311">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX20">
-    <cfRule type="colorScale" priority="309">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
-    <cfRule type="colorScale" priority="306">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26">
-    <cfRule type="colorScale" priority="305">
+    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5163,107 +5221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA27">
-    <cfRule type="colorScale" priority="301">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC27">
-    <cfRule type="colorScale" priority="300">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ22">
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
-    <cfRule type="colorScale" priority="270">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV31">
-    <cfRule type="colorScale" priority="271">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
-    <cfRule type="colorScale" priority="293">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24">
-    <cfRule type="colorScale" priority="292">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW25">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY25">
-    <cfRule type="colorScale" priority="288">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA25">
-    <cfRule type="colorScale" priority="287">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC25">
-    <cfRule type="colorScale" priority="286">
+    <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5273,7 +5231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV29">
-    <cfRule type="colorScale" priority="284">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5283,7 +5241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX28">
-    <cfRule type="colorScale" priority="283">
+    <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5293,7 +5251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ28">
-    <cfRule type="colorScale" priority="282">
+    <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5303,7 +5261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB28">
-    <cfRule type="colorScale" priority="281">
+    <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5313,7 +5271,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW29">
-    <cfRule type="colorScale" priority="280">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY29">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA29">
+    <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5323,366 +5301,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC29">
-    <cfRule type="colorScale" priority="277">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV28">
-    <cfRule type="colorScale" priority="285">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
-    <cfRule type="colorScale" priority="279">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV24">
-    <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
-    <cfRule type="colorScale" priority="275">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24">
-    <cfRule type="colorScale" priority="274">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB24">
-    <cfRule type="colorScale" priority="273">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV30">
-    <cfRule type="colorScale" priority="272">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC27">
-    <cfRule type="colorScale" priority="250">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV28">
-    <cfRule type="colorScale" priority="249">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ30">
-    <cfRule type="colorScale" priority="269">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB30">
-    <cfRule type="colorScale" priority="268">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW31">
-    <cfRule type="colorScale" priority="267">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY31">
-    <cfRule type="colorScale" priority="266">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA31">
-    <cfRule type="colorScale" priority="265">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC31">
-    <cfRule type="colorScale" priority="264">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV25">
-    <cfRule type="colorScale" priority="263">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW25">
-    <cfRule type="colorScale" priority="262">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY25">
-    <cfRule type="colorScale" priority="261">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA25">
-    <cfRule type="colorScale" priority="260">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC25">
-    <cfRule type="colorScale" priority="259">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV26">
-    <cfRule type="colorScale" priority="258">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV27">
-    <cfRule type="colorScale" priority="257">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
-    <cfRule type="colorScale" priority="256">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26">
-    <cfRule type="colorScale" priority="255">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB26">
-    <cfRule type="colorScale" priority="254">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW27">
-    <cfRule type="colorScale" priority="253">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY27">
-    <cfRule type="colorScale" priority="252">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA27">
-    <cfRule type="colorScale" priority="251">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV29">
-    <cfRule type="colorScale" priority="248">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
-    <cfRule type="colorScale" priority="247">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ28">
-    <cfRule type="colorScale" priority="246">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB28">
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW29">
-    <cfRule type="colorScale" priority="244">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
-    <cfRule type="colorScale" priority="243">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5692,7 +5310,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC29">
+  <conditionalFormatting sqref="AV33">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX32">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ32">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB32">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW33">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC33">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV32">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5702,47 +5380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV33">
-    <cfRule type="colorScale" priority="239">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX32">
-    <cfRule type="colorScale" priority="238">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ32">
-    <cfRule type="colorScale" priority="237">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB32">
-    <cfRule type="colorScale" priority="236">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW33">
+  <conditionalFormatting sqref="AY33">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5752,7 +5390,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC33">
+  <conditionalFormatting sqref="BA33">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ21:AT22">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5762,37 +5410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV32">
-    <cfRule type="colorScale" priority="240">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY33">
-    <cfRule type="colorScale" priority="234">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA33">
-    <cfRule type="colorScale" priority="233">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ21:AT22">
+  <conditionalFormatting sqref="AV21:AY22">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5802,7 +5420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV21:AY22">
+  <conditionalFormatting sqref="AZ20:BC21">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5812,7 +5430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ20:BC21">
+  <conditionalFormatting sqref="BA23">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5832,7 +5450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA23">
+  <conditionalFormatting sqref="BC23">
     <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5852,7 +5470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC23">
+  <conditionalFormatting sqref="W29">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5862,28 +5480,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+  <conditionalFormatting sqref="V29">
     <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
-    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5902,7 +5500,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W29">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:T32">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18:V19 V27:V28">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5912,7 +5540,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:T32">
+  <conditionalFormatting sqref="R27:S28">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:T31">
     <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5922,27 +5560,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V19 V27:V28">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27:S28">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:T31">
+  <conditionalFormatting sqref="X21">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29:S29 R28 R30:R32">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5952,17 +5600,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
-    <cfRule type="colorScale" priority="193">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20">
+  <conditionalFormatting sqref="T21:U30">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5972,7 +5620,217 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
+  <conditionalFormatting sqref="C21:P32">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27:AP28">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28:AP32">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA21:AF21 AA32:AN32 AA30:AA31 AA28:AB29 AA26:AC27 AN26:AN27 AA24:AD25 AM24:AN25 AA22:AE23 AL22:AN23 AK21:AN21">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO21">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26:W27">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5982,247 +5840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:S29 R28 R30:R32">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:U30">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:P32">
-    <cfRule type="colorScale" priority="214">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="colorScale" priority="212">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27:AP28">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28:AP32">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA21:AF21 AA32:AN32 AA30:AA31 AA28:AB29 AA26:AC27 AN26:AN27 AA24:AD25 AM24:AN25 AA22:AE23 AL22:AN23 AK21:AN21">
-    <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO21">
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W26:W27">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W22">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
-    <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
+  <conditionalFormatting sqref="X26">
     <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6232,37 +5850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:R16">
+  <conditionalFormatting sqref="D5:J8 D9:I9">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6272,28 +5860,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:P16">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
